--- a/surya_punctuation_sars_like/surya_results_punctuation_sars_like.xlsx
+++ b/surya_punctuation_sars_like/surya_results_punctuation_sars_like.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_punctuation_sars_like\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s71z662\Documents\Emergency\IZANAMI2\2_macroevolution\surya_punctuation_sars_like\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738A9421-7810-40BD-A513-B6B9BD92C2BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{A29C0B7E-6BD4-4D3F-B20E-4D7D98D80CA9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -226,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -638,19 +637,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65725C74-E320-49C2-9041-7CC34A4B5CCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.76953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -658,7 +657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -666,7 +665,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -674,7 +673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -682,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -690,12 +689,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -703,17 +702,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -721,7 +720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -729,7 +728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -737,7 +736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -745,7 +744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -753,7 +752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -761,7 +760,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -769,7 +768,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -777,7 +776,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -785,7 +784,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -793,7 +792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -801,7 +800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
@@ -809,7 +808,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -817,7 +816,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -825,7 +824,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -840,36 +839,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AACDFB8-7AE7-4540-B402-8A2C562F39AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.36328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.76953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.76953125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.76953125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.76953125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.2265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.2265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.76953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -934,7 +933,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1033,7 +1032,7 @@
         <v>5.3244034371628572</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1090,7 +1089,7 @@
       </c>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1152,7 +1151,7 @@
         <v>4.3145791557441839</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1214,7 +1213,7 @@
         <v>4.3145791557441839</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1276,7 +1275,7 @@
         <v>4.3145791557441839</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E8" s="14"/>
     </row>
   </sheetData>
@@ -1294,12 +1293,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E46722399A7B5D4590DBCFF250182F33" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05807d8e6f97dd573643f350d0638d6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="677f5592-671a-486f-9aac-5097e59069f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fa3647ed1dc35413e65d5d4278d9638" ns3:_="">
     <xsd:import namespace="677f5592-671a-486f-9aac-5097e59069f9"/>
@@ -1469,6 +1462,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
   <ds:schemaRefs>
@@ -1478,22 +1477,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1509,4 +1492,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/surya_punctuation_sars_like/surya_results_punctuation_sars_like.xlsx
+++ b/surya_punctuation_sars_like/surya_results_punctuation_sars_like.xlsx
@@ -15,7 +15,7 @@
     <sheet name="meta" sheetId="2" r:id="rId1"/>
     <sheet name="results" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>log_lik</t>
   </si>
@@ -221,16 +221,27 @@
   <si>
     <t>Delta BIC (BIC of a model - BIC of the model with the lowest value)</t>
   </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>BayesTraits</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -305,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -324,6 +335,9 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,443 +854,754 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="12">
+      <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="13">
+      <c r="E2" s="13">
         <v>261.20013499999999</v>
       </c>
-      <c r="E2" s="14">
+      <c r="F2" s="14">
         <v>0.14696900487299999</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="6">
         <v>4.3973140000000002E-6</v>
       </c>
-      <c r="K2" s="10">
+      <c r="L2" s="17">
         <v>1.436539847E-3</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>4.8563396899999999E-4</v>
       </c>
-      <c r="M2" s="10">
+      <c r="N2" s="10">
         <v>8.1620000000000009E-3</v>
       </c>
-      <c r="N2" s="9">
+      <c r="O2" s="9">
         <v>2.8E-5</v>
       </c>
-      <c r="S2" s="4">
-        <f t="shared" ref="S2:S7" si="0">TDIST((ABS(F2)/N2),51,1)</f>
+      <c r="T2" s="4">
+        <f t="shared" ref="T2:T7" si="0">TDIST((ABS(G2)/O2),51,1)</f>
         <v>0.4379139769909966</v>
       </c>
-      <c r="T2" s="5">
-        <f>(LN(52)*3)-(2*D2)</f>
+      <c r="U2" s="5">
+        <f>(LN(52)*3)-(2*E2)</f>
         <v>-510.54653884425568</v>
       </c>
-      <c r="U2" s="5">
+      <c r="V2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="12">
+      <c r="D3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="13">
+      <c r="E3" s="13">
         <v>262.48917699999998</v>
       </c>
-      <c r="E3" s="14">
+      <c r="F3" s="14">
         <v>0.154389623748</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="6">
         <v>3.7572990000000002E-6</v>
       </c>
-      <c r="G3" s="10">
+      <c r="H3" s="10">
         <v>-7.7635345860000001E-3</v>
       </c>
-      <c r="H3" s="15">
+      <c r="I3" s="15">
         <v>-4.7662350000000001E-6</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="17">
         <v>1.3670550269999999E-3</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>4.8831716262000002E-2</v>
       </c>
-      <c r="M3" s="10">
+      <c r="N3" s="10">
         <v>9.5589999999999998E-3</v>
       </c>
-      <c r="N3" s="9">
+      <c r="O3" s="9">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="O3" s="10">
+      <c r="P3" s="10">
         <v>8.1410000000000007E-3</v>
       </c>
-      <c r="P3" s="10">
+      <c r="Q3" s="10">
         <v>1.2080000000000001E-3</v>
       </c>
-      <c r="S3" s="4">
+      <c r="T3" s="4">
         <f t="shared" si="0"/>
         <v>0.44493620345451584</v>
       </c>
-      <c r="T3" s="5">
-        <f>(LN(52)*5)-(2*D3)</f>
+      <c r="U3" s="5">
+        <f>(LN(52)*5)-(2*E3)</f>
         <v>-505.22213540709282</v>
       </c>
-      <c r="U3" s="5">
-        <f>T3-T2</f>
+      <c r="V3" s="5">
+        <f>U3-U2</f>
         <v>5.3244034371628572</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="12">
+      <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="13">
+      <c r="E4" s="13">
         <v>262.48917699999998</v>
       </c>
-      <c r="E4" s="14">
+      <c r="F4" s="14">
         <v>0.146626089174</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <v>-1.0089340000000001E-6</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <v>7.7635345949999997E-3</v>
       </c>
-      <c r="H4" s="15">
+      <c r="I4" s="15">
         <v>4.7662339999999999E-6</v>
       </c>
-      <c r="K4" s="10">
+      <c r="L4" s="17">
         <v>1.3670550279999999E-3</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>4.8831716294000002E-2</v>
       </c>
-      <c r="M4" s="10">
+      <c r="N4" s="10">
         <v>8.8789999999999997E-3</v>
       </c>
-      <c r="N4" s="9">
+      <c r="O4" s="9">
         <v>1.2080000000000001E-3</v>
       </c>
-      <c r="O4" s="10">
+      <c r="P4" s="10">
         <v>8.1410000000000007E-3</v>
       </c>
-      <c r="P4" s="10">
+      <c r="Q4" s="10">
         <v>1.2080000000000001E-3</v>
       </c>
-      <c r="S4" s="4">
+      <c r="T4" s="4">
         <f t="shared" si="0"/>
         <v>0.49966842858747151</v>
       </c>
-      <c r="T4" s="5">
-        <f>(LN(52)*5)-(2*D4)</f>
+      <c r="U4" s="5">
+        <f>(LN(52)*5)-(2*E4)</f>
         <v>-505.22213540709282</v>
       </c>
-      <c r="U4" s="5">
-        <f>T4-T2</f>
+      <c r="V4" s="5">
+        <f>U4-U2</f>
         <v>5.3244034371628572</v>
       </c>
-      <c r="V4" s="5"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W4" s="5"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="12">
+      <c r="D5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="13">
+      <c r="E5" s="13">
         <v>264.96971100000002</v>
       </c>
-      <c r="E5" s="14">
+      <c r="F5" s="14">
         <v>0.16857154706399999</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <v>3.2462509999999999E-6</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
         <v>-2.2673291046000001E-2</v>
       </c>
-      <c r="I5" s="10">
+      <c r="J5" s="10">
         <v>-2.5188756287999998E-2</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K5" s="10">
         <v>1.121935733E-3</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="17">
         <v>1.2426592659999999E-3</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>0.13538368665299999</v>
       </c>
-      <c r="M5" s="10">
+      <c r="N5" s="10">
         <v>1.1030999999999999E-2</v>
       </c>
-      <c r="N5" s="9">
+      <c r="O5" s="9">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="O5" s="10">
+      <c r="P5" s="10">
         <v>9.9380000000000007E-3</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="R5" s="10">
         <v>1.0888999999999999E-2</v>
       </c>
-      <c r="R5" s="10">
+      <c r="S5" s="10">
         <v>1.2539999999999999E-3</v>
       </c>
-      <c r="S5" s="4">
+      <c r="T5" s="4">
         <f t="shared" si="0"/>
         <v>0.45056427730471482</v>
       </c>
-      <c r="T5" s="5">
-        <f>(LN(52)*6)-(2*D5)</f>
+      <c r="U5" s="5">
+        <f>(LN(52)*6)-(2*E5)</f>
         <v>-506.23195968851149</v>
       </c>
-      <c r="U5" s="5">
-        <f>T5-T2</f>
+      <c r="V5" s="5">
+        <f>U5-U2</f>
         <v>4.3145791557441839</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="12">
+      <c r="D6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="13">
+      <c r="E6" s="13">
         <v>264.96971100000002</v>
       </c>
-      <c r="E6" s="14">
+      <c r="F6" s="14">
         <v>0.14589825608900001</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>3.2462509999999999E-6</v>
       </c>
-      <c r="G6" s="10">
+      <c r="H6" s="10">
         <v>2.2673291019000001E-2</v>
       </c>
-      <c r="I6" s="10">
+      <c r="J6" s="10">
         <v>-2.5188756294000001E-2</v>
       </c>
-      <c r="J6" s="10">
+      <c r="K6" s="10">
         <v>1.121935734E-3</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="17">
         <v>1.2426592679999999E-3</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>0.13538368535699999</v>
       </c>
-      <c r="M6" s="10">
+      <c r="N6" s="10">
         <v>9.8440000000000003E-3</v>
       </c>
-      <c r="N6" s="9">
+      <c r="O6" s="9">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="O6" s="10">
+      <c r="P6" s="10">
         <v>9.9380000000000007E-3</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="R6" s="10">
         <v>1.0888999999999999E-2</v>
       </c>
-      <c r="R6" s="10">
+      <c r="S6" s="10">
         <v>1.2539999999999999E-3</v>
       </c>
-      <c r="S6" s="4">
+      <c r="T6" s="4">
         <f t="shared" si="0"/>
         <v>0.45056427730471482</v>
       </c>
-      <c r="T6" s="5">
-        <f>(LN(52)*6)-(2*D6)</f>
+      <c r="U6" s="5">
+        <f>(LN(52)*6)-(2*E6)</f>
         <v>-506.23195968851149</v>
       </c>
-      <c r="U6" s="5">
-        <f>T6-T2</f>
+      <c r="V6" s="5">
+        <f>U6-U2</f>
         <v>4.3145791557441839</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="12">
+      <c r="D7" s="12">
         <v>1</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>264.96971100000002</v>
       </c>
-      <c r="E7" s="14">
+      <c r="F7" s="14">
         <v>0.14338279082800001</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>1.125181986E-3</v>
       </c>
-      <c r="G7" s="10">
+      <c r="H7" s="10">
         <v>2.5188756295999998E-2</v>
       </c>
-      <c r="I7" s="10">
+      <c r="J7" s="10">
         <v>2.5154652869999999E-3</v>
       </c>
-      <c r="J7" s="10">
+      <c r="K7" s="10">
         <v>-1.121935735E-3</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="17">
         <v>1.2426592649999999E-3</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>0.13538368665299999</v>
       </c>
-      <c r="M7" s="10">
+      <c r="N7" s="10">
         <v>8.5839999999999996E-3</v>
       </c>
-      <c r="N7" s="9">
+      <c r="O7" s="9">
         <v>1.253E-3</v>
       </c>
-      <c r="O7" s="10">
+      <c r="P7" s="10">
         <v>1.0888999999999999E-2</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="R7" s="10">
         <v>8.0949999999999998E-3</v>
       </c>
-      <c r="R7" s="10">
+      <c r="S7" s="10">
         <v>1.2539999999999999E-3</v>
       </c>
-      <c r="S7" s="4">
+      <c r="T7" s="4">
         <f t="shared" si="0"/>
         <v>0.18670530323040596</v>
       </c>
-      <c r="T7" s="5">
-        <f>(LN(52)*6)-(2*D7)</f>
+      <c r="U7" s="5">
+        <f>(LN(52)*6)-(2*E7)</f>
         <v>-506.23195968851149</v>
       </c>
-      <c r="U7" s="5">
-        <f>T7-T2</f>
+      <c r="V7" s="5">
+        <f>U7-U2</f>
         <v>4.3145791557441839</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="E8" s="14"/>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>258.1037</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.16066730000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2.166796E-5</v>
+      </c>
+      <c r="L8" s="17">
+        <v>2.2065989795217499E-4</v>
+      </c>
+      <c r="M8" s="3">
+        <v>-2.4691080800780502E-2</v>
+      </c>
+      <c r="N8" s="10">
+        <v>8.6698790000000001E-3</v>
+      </c>
+      <c r="O8" s="16">
+        <v>1.351584E-5</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0.1152001</v>
+      </c>
+      <c r="U8" s="5">
+        <v>-504.47140000000002</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>251.34780000000001</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.16985040000000001</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1.282865E-5</v>
+      </c>
+      <c r="H9" s="10">
+        <v>-2.664267E-2</v>
+      </c>
+      <c r="I9" s="15">
+        <v>6.0077280000000004E-3</v>
+      </c>
+      <c r="L9" s="17">
+        <v>2.0742635695666299E-4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>-0.44050961421255602</v>
+      </c>
+      <c r="N9" s="10">
+        <v>1.0380454399999999E-2</v>
+      </c>
+      <c r="O9" s="16">
+        <v>1.49023E-5</v>
+      </c>
+      <c r="P9" s="10">
+        <v>1.25487676E-2</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>2.6459155000000002E-3</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0.39360030000000001</v>
+      </c>
+      <c r="U9" s="5">
+        <v>-483.33949999999999</v>
+      </c>
+      <c r="V9" s="5">
+        <f>U9-U8</f>
+        <v>21.13190000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>251.67259999999999</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0.2148313</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1.5454860000000001E-5</v>
+      </c>
+      <c r="H10" s="10">
+        <v>-4.6112130000000001E-2</v>
+      </c>
+      <c r="J10" s="10">
+        <v>-8.3196580000000006E-2</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1.0013050000000001E-2</v>
+      </c>
+      <c r="L10" s="17">
+        <v>1.83209498555138E-4</v>
+      </c>
+      <c r="M10" s="3">
+        <v>-2.0539814341886902</v>
+      </c>
+      <c r="N10" s="10">
+        <v>1.9252229999999999E-2</v>
+      </c>
+      <c r="O10" s="16">
+        <v>1.4038880000000001E-5</v>
+      </c>
+      <c r="P10" s="10">
+        <v>1.7014850000000002E-2</v>
+      </c>
+      <c r="R10" s="10">
+        <v>2.3969770000000001E-2</v>
+      </c>
+      <c r="S10" s="10">
+        <v>2.8927089999999998E-3</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0.27656310000000001</v>
+      </c>
+      <c r="U10" s="5">
+        <v>-480.24419999999998</v>
+      </c>
+      <c r="V10" s="5">
+        <f>U10-U8</f>
+        <v>24.227200000000039</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>251.67259999999999</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.16871920000000001</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1.5454860000000001E-5</v>
+      </c>
+      <c r="H11" s="10">
+        <v>4.6112130000000001E-2</v>
+      </c>
+      <c r="J11" s="10">
+        <v>-3.7084449999999998E-2</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1.0013050000000001E-2</v>
+      </c>
+      <c r="L11" s="17">
+        <v>1.83209498555138E-4</v>
+      </c>
+      <c r="M11" s="3">
+        <v>-2.0539814341886999</v>
+      </c>
+      <c r="N11" s="10">
+        <v>9.7646250000000007E-3</v>
+      </c>
+      <c r="O11" s="16">
+        <v>1.4038880000000001E-5</v>
+      </c>
+      <c r="P11" s="10">
+        <v>1.7014850000000002E-2</v>
+      </c>
+      <c r="R11" s="10">
+        <v>1.240692E-2</v>
+      </c>
+      <c r="S11" s="10">
+        <v>2.8927089999999998E-3</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0.27656310000000001</v>
+      </c>
+      <c r="U11" s="5">
+        <v>-480.24419999999998</v>
+      </c>
+      <c r="V11" s="5">
+        <f>U11-U8</f>
+        <v>24.227200000000039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12">
+        <v>251.67259999999999</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.13163472000000001</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1.0028509999999999E-2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>8.3196580000000006E-2</v>
+      </c>
+      <c r="J12" s="10">
+        <v>3.7084449999999998E-2</v>
+      </c>
+      <c r="K12" s="10">
+        <v>-1.0013050000000001E-2</v>
+      </c>
+      <c r="L12" s="17">
+        <v>1.8320949855513599E-4</v>
+      </c>
+      <c r="M12" s="3">
+        <v>-2.0539814341887901</v>
+      </c>
+      <c r="N12" s="10">
+        <v>1.1511894E-2</v>
+      </c>
+      <c r="O12" s="16">
+        <v>2.8905049999999998E-3</v>
+      </c>
+      <c r="P12" s="10">
+        <v>2.3969770000000001E-2</v>
+      </c>
+      <c r="R12" s="10">
+        <v>1.2406921E-2</v>
+      </c>
+      <c r="S12" s="10">
+        <v>2.8927089999999998E-3</v>
+      </c>
+      <c r="T12" s="4">
+        <v>1.12739E-3</v>
+      </c>
+      <c r="U12" s="5">
+        <v>-480.24419999999998</v>
+      </c>
+      <c r="V12" s="5">
+        <f>U12-U8</f>
+        <v>24.227200000000039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="H14" s="18"/>
+      <c r="I14" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1293,6 +1618,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E46722399A7B5D4590DBCFF250182F33" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05807d8e6f97dd573643f350d0638d6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="677f5592-671a-486f-9aac-5097e59069f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fa3647ed1dc35413e65d5d4278d9638" ns3:_="">
     <xsd:import namespace="677f5592-671a-486f-9aac-5097e59069f9"/>
@@ -1462,12 +1793,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
   <ds:schemaRefs>
@@ -1477,6 +1802,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1492,20 +1833,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/surya_punctuation_sars_like/surya_results_punctuation_sars_like.xlsx
+++ b/surya_punctuation_sars_like/surya_results_punctuation_sars_like.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="62">
   <si>
     <t>log_lik</t>
   </si>
@@ -230,18 +230,25 @@
   <si>
     <t>R</t>
   </si>
+  <si>
+    <t>R (non-phylo; lm)</t>
+  </si>
+  <si>
+    <t>~0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000000"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.00000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -316,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -337,7 +344,12 @@
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,13 +866,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="12" bestFit="1" customWidth="1"/>
@@ -874,7 +886,9 @@
     <col min="13" max="13" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1349,7 +1363,7 @@
       <c r="U8" s="5">
         <v>-504.47140000000002</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1366,7 +1380,7 @@
       <c r="D9" s="12">
         <v>1</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="13">
         <v>251.34780000000001</v>
       </c>
       <c r="F9" s="14">
@@ -1423,7 +1437,7 @@
       <c r="D10" s="12">
         <v>1</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="13">
         <v>251.67259999999999</v>
       </c>
       <c r="F10" s="14">
@@ -1486,7 +1500,7 @@
       <c r="D11" s="12">
         <v>1</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="13">
         <v>251.67259999999999</v>
       </c>
       <c r="F11" s="14">
@@ -1549,7 +1563,7 @@
       <c r="D12" s="12">
         <v>1</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="13">
         <v>251.67259999999999</v>
       </c>
       <c r="F12" s="14">
@@ -1599,31 +1613,692 @@
         <v>24.227200000000039</v>
       </c>
     </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="13">
+        <v>120.114681</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0.149356850726</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1.6522815860000001E-3</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="17">
+        <v>3.5396688229999999E-3</v>
+      </c>
+      <c r="M13" s="3">
+        <v>3.9873430406999998E-2</v>
+      </c>
+      <c r="N13" s="10">
+        <v>8.7259999999999994E-3</v>
+      </c>
+      <c r="O13" s="16">
+        <v>1.124E-3</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="4">
+        <f t="shared" ref="T13:T17" si="1">TDIST((ABS(G13)/O13),51,1)</f>
+        <v>7.3852011996819955E-2</v>
+      </c>
+      <c r="U13" s="5">
+        <f>(LN(52)*3)-(2*E13)</f>
+        <v>-228.37563084425574</v>
+      </c>
+      <c r="V13" s="5"/>
+    </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="H14" s="18"/>
-      <c r="I14" s="15"/>
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="13">
+        <v>106.1686</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0.15942587999999999</v>
+      </c>
+      <c r="G14" s="6">
+        <v>7.5407000000000002E-4</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="17">
+        <v>6.85232351417323E-4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>7.3837753642974598E-3</v>
+      </c>
+      <c r="N14" s="10">
+        <v>9.6932670000000002E-3</v>
+      </c>
+      <c r="O14" s="16">
+        <v>1.236427E-3</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="4">
+        <v>0.54470410000000002</v>
+      </c>
+      <c r="U14" s="5">
+        <v>-200.60120000000001</v>
+      </c>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>106.16840000000001</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0.15942591850000001</v>
+      </c>
+      <c r="G15" s="6">
+        <v>7.5405610000000005E-4</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="17">
+        <v>6.8523863199330503E-4</v>
+      </c>
+      <c r="M15" s="3">
+        <v>7.3837753721987002E-3</v>
+      </c>
+      <c r="N15" s="10">
+        <v>9.6933030000000003E-3</v>
+      </c>
+      <c r="O15" s="16">
+        <v>1.236432E-3</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="4">
+        <v>0.54471320000000001</v>
+      </c>
+      <c r="U15" s="5">
+        <v>-200.60069999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <v>116.664263540202</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.15942590000000001</v>
+      </c>
+      <c r="G16" s="6">
+        <v>7.5409999999999995E-4</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="17">
+        <v>6.8523863199330503E-4</v>
+      </c>
+      <c r="M16" s="3">
+        <v>7.3837753721994696E-3</v>
+      </c>
+      <c r="N16" s="10">
+        <v>9.6933000000000002E-3</v>
+      </c>
+      <c r="O16" s="16">
+        <v>1.2363999999999999E-3</v>
+      </c>
+      <c r="P16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="4">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="U16" s="5">
+        <v>-221.47479592465999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="13">
+        <v>124.00726400000001</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0.183247348723</v>
+      </c>
+      <c r="G17" s="6">
+        <v>-1.138153606E-3</v>
+      </c>
+      <c r="H17" s="10">
+        <v>-2.1288810645999998E-2</v>
+      </c>
+      <c r="I17" s="15">
+        <v>-5.83957101E-4</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="17">
+        <v>3.047490316E-3</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.17337565496400001</v>
+      </c>
+      <c r="N17" s="10">
+        <v>2.8167999999999999E-2</v>
+      </c>
+      <c r="O17" s="16">
+        <v>2.8809999999999999E-3</v>
+      </c>
+      <c r="P17" s="10">
+        <v>3.0013000000000001E-2</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>3.3939999999999999E-3</v>
+      </c>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.34722488378916372</v>
+      </c>
+      <c r="U17" s="5">
+        <f>(LN(52)*5)-(2*E17)</f>
+        <v>-228.25830940709287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="13">
+        <v>100.9081</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0.18336849799999999</v>
+      </c>
+      <c r="G18" s="6">
+        <v>-1.0940749999999999E-3</v>
+      </c>
+      <c r="H18" s="10">
+        <v>-8.8422080000000007E-3</v>
+      </c>
+      <c r="I18" s="15">
+        <v>-2.0329010000000002E-3</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="17">
+        <v>6.31503069408968E-4</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0.121808791327654</v>
+      </c>
+      <c r="N18" s="10">
+        <v>3.0294952999999999E-2</v>
+      </c>
+      <c r="O18" s="16">
+        <v>3.1020800000000001E-3</v>
+      </c>
+      <c r="P18" s="10">
+        <v>3.2696040000000003E-2</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>3.7804829999999998E-3</v>
+      </c>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="4">
+        <v>0.72586430000000002</v>
+      </c>
+      <c r="U18" s="5">
+        <v>-182.46019999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>100.9079</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0.183368794</v>
+      </c>
+      <c r="G19" s="6">
+        <v>-1.0941049999999999E-3</v>
+      </c>
+      <c r="H19" s="10">
+        <v>-8.8422589999999999E-3</v>
+      </c>
+      <c r="I19" s="15">
+        <v>-2.0329340000000001E-3</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="17">
+        <v>6.3150722252206795E-4</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0.121808791350922</v>
+      </c>
+      <c r="N19" s="10">
+        <v>3.0295057E-2</v>
+      </c>
+      <c r="O19" s="16">
+        <v>3.102091E-3</v>
+      </c>
+      <c r="P19" s="10">
+        <v>3.2696158000000003E-2</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>3.7804959999999999E-3</v>
+      </c>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="4">
+        <v>0.72585789999999994</v>
+      </c>
+      <c r="U19" s="5">
+        <v>-182.4598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="13">
+        <v>119.848737330757</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.183369</v>
+      </c>
+      <c r="G20" s="6">
+        <v>-1.0939999999999999E-3</v>
+      </c>
+      <c r="H20" s="10">
+        <v>-8.8419999999999992E-3</v>
+      </c>
+      <c r="I20" s="15">
+        <v>-2.0330000000000001E-3</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="17">
+        <v>6.3150722252206795E-4</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.121808791350923</v>
+      </c>
+      <c r="N20" s="10">
+        <v>3.0294999999999999E-2</v>
+      </c>
+      <c r="O20" s="16">
+        <v>3.1020000000000002E-3</v>
+      </c>
+      <c r="P20" s="10">
+        <v>3.2696000000000003E-2</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>3.7799999999999999E-3</v>
+      </c>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="4">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="U20" s="5">
+        <v>-219.941256068608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="13">
+        <v>126.243104</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0.163436789178</v>
+      </c>
+      <c r="G21" s="6">
+        <v>-4.7608668999999999E-5</v>
+      </c>
+      <c r="H21" s="10">
+        <v>1.9716317798E-2</v>
+      </c>
+      <c r="J21" s="10">
+        <v>-1.478186889E-3</v>
+      </c>
+      <c r="K21" s="10">
+        <v>-1.674520348E-3</v>
+      </c>
+      <c r="L21" s="17">
+        <v>2.7963768219999999E-3</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.24148958017</v>
+      </c>
+      <c r="N21" s="10">
+        <v>2.8497000000000001E-2</v>
+      </c>
+      <c r="O21" s="16">
+        <v>2.8050000000000002E-3</v>
+      </c>
+      <c r="P21" s="10">
+        <v>9.1240000000000002E-3</v>
+      </c>
+      <c r="R21" s="10">
+        <v>3.0176999999999999E-2</v>
+      </c>
+      <c r="S21" s="10">
+        <v>3.29E-3</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" ref="T21" si="2">TDIST((ABS(G21)/O21),51,1)</f>
+        <v>0.49326227591847671</v>
+      </c>
+      <c r="U21" s="5">
+        <f>(LN(52)*6)-(2*E21)</f>
+        <v>-228.77874568851144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="13">
+        <v>99.089280000000002</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0.1633889</v>
+      </c>
+      <c r="G22" s="6">
+        <v>-4.2525830000000001E-5</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1.971678E-2</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1.113742E-2</v>
+      </c>
+      <c r="K22" s="10">
+        <v>-3.084472E-3</v>
+      </c>
+      <c r="L22" s="17">
+        <v>5.9685596030542305E-4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.18728470393521199</v>
+      </c>
+      <c r="N22" s="10">
+        <v>3.1190649000000001E-2</v>
+      </c>
+      <c r="O22" s="16">
+        <v>3.0638179999999998E-3</v>
+      </c>
+      <c r="P22" s="10">
+        <v>1.0132683E-2</v>
+      </c>
+      <c r="R22" s="10">
+        <v>3.3403685000000002E-2</v>
+      </c>
+      <c r="S22" s="10">
+        <v>3.7148319999999999E-3</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0.98898450000000004</v>
+      </c>
+      <c r="U22" s="5">
+        <v>-175.07769999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>99.089179999999999</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0.1633888</v>
+      </c>
+      <c r="G23" s="6">
+        <v>-4.2525860000000003E-5</v>
+      </c>
+      <c r="H23" s="10">
+        <v>1.9717120000000001E-2</v>
+      </c>
+      <c r="J23" s="10">
+        <v>1.113775E-2</v>
+      </c>
+      <c r="K23" s="10">
+        <v>-3.0845130000000001E-3</v>
+      </c>
+      <c r="L23" s="17">
+        <v>5.9685804194022595E-4</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.187284703964089</v>
+      </c>
+      <c r="N23" s="10">
+        <v>3.1190709E-2</v>
+      </c>
+      <c r="O23" s="16">
+        <v>3.0638240000000001E-3</v>
+      </c>
+      <c r="P23" s="10">
+        <v>1.0132647E-2</v>
+      </c>
+      <c r="R23" s="10">
+        <v>3.3403742E-2</v>
+      </c>
+      <c r="S23" s="10">
+        <v>3.7148379999999998E-3</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0.98898450000000004</v>
+      </c>
+      <c r="U23" s="5">
+        <v>-175.07749999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
+        <v>99.089176460628806</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0.16338878000000001</v>
+      </c>
+      <c r="G24" s="6">
+        <v>-4.2530000000000001E-5</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1.9717120000000001E-2</v>
+      </c>
+      <c r="J24" s="10">
+        <v>1.113775E-2</v>
+      </c>
+      <c r="K24" s="10">
+        <v>-3.0845099999999999E-3</v>
+      </c>
+      <c r="L24" s="17">
+        <v>5.9685804194022595E-4</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.187284703964089</v>
+      </c>
+      <c r="N24" s="10">
+        <v>3.119071E-2</v>
+      </c>
+      <c r="O24" s="16">
+        <v>3.0638200000000001E-3</v>
+      </c>
+      <c r="P24" s="10">
+        <v>1.013265E-2</v>
+      </c>
+      <c r="R24" s="10">
+        <v>3.3403740000000001E-2</v>
+      </c>
+      <c r="S24" s="10">
+        <v>3.7148400000000001E-3</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="U24" s="5">
+        <v>-175.07746731099701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H25" s="20"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G27" s="6"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I28" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E46722399A7B5D4590DBCFF250182F33" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05807d8e6f97dd573643f350d0638d6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="677f5592-671a-486f-9aac-5097e59069f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fa3647ed1dc35413e65d5d4278d9638" ns3:_="">
     <xsd:import namespace="677f5592-671a-486f-9aac-5097e59069f9"/>
@@ -1793,15 +2468,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1817,7 +2493,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1833,4 +2509,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/surya_punctuation_sars_like/surya_results_punctuation_sars_like.xlsx
+++ b/surya_punctuation_sars_like/surya_results_punctuation_sars_like.xlsx
@@ -14,6 +14,8 @@
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
     <sheet name="results" sheetId="3" r:id="rId2"/>
+    <sheet name="prediction" sheetId="4" r:id="rId3"/>
+    <sheet name="prediction_estimates" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="107">
   <si>
     <t>log_lik</t>
   </si>
@@ -235,6 +237,141 @@
   </si>
   <si>
     <t>~0</t>
+  </si>
+  <si>
+    <t>3-group (without potential outliers)</t>
+  </si>
+  <si>
+    <t>prediction</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Potential outliers: Six pangolin and one bat (RaTG13) SARS-like CoV genomes</t>
+  </si>
+  <si>
+    <t>Log marginal likelihood</t>
+  </si>
+  <si>
+    <t>Mean intercept of the fit line of the reference group</t>
+  </si>
+  <si>
+    <t>Mean slope of the fit line of the reference</t>
+  </si>
+  <si>
+    <t>Mean intercept difference (relative to the reference)</t>
+  </si>
+  <si>
+    <t>Mean intercept difference (relative to the reference; third group)</t>
+  </si>
+  <si>
+    <t>Mean interaction between the number of nodes and a dummy variable (third group)</t>
+  </si>
+  <si>
+    <t>Mean variance</t>
+  </si>
+  <si>
+    <t>Mean R-squared</t>
+  </si>
+  <si>
+    <t>Mean standard error</t>
+  </si>
+  <si>
+    <t>3-group (predicting potential outliers)</t>
+  </si>
+  <si>
+    <t>prediction_estimates</t>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+  </si>
+  <si>
+    <t>1-group (without potential outliers)</t>
+  </si>
+  <si>
+    <t>2-group (without potential outliers)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>pangolin/Guangxi/P1E/2017</t>
+  </si>
+  <si>
+    <t>pangolin/Guangxi/P5L/2017</t>
+  </si>
+  <si>
+    <t>genome</t>
+  </si>
+  <si>
+    <t>pangolin/Guangxi/P4L/2017</t>
+  </si>
+  <si>
+    <t>pangolin/Guangxi/P5E/2017</t>
+  </si>
+  <si>
+    <t>pangolin/Guangdong/1/2020</t>
+  </si>
+  <si>
+    <t>pangolin/Guangdong/P2S/2019</t>
+  </si>
+  <si>
+    <t>bat/Yunnan/RaTG13/2013</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>Observed node count</t>
+  </si>
+  <si>
+    <t>emp_path</t>
+  </si>
+  <si>
+    <t>Observed total path length</t>
+  </si>
+  <si>
+    <t>mean_pred_path</t>
+  </si>
+  <si>
+    <t>min_pred_path</t>
+  </si>
+  <si>
+    <t>max_pred_path</t>
+  </si>
+  <si>
+    <t>se_pred</t>
+  </si>
+  <si>
+    <t>Mean of the distribution of predicted total path length</t>
+  </si>
+  <si>
+    <t>Maximum predicted total path length</t>
+  </si>
+  <si>
+    <t>Minimum predicted total path length</t>
+  </si>
+  <si>
+    <t>Mean standard error of the prediction</t>
+  </si>
+  <si>
+    <t>Proportion of the distribution of the predicted total path length that is higher or lower than the observed</t>
+  </si>
+  <si>
+    <t>beta3</t>
+  </si>
+  <si>
+    <t>pMCMC1</t>
+  </si>
+  <si>
+    <t>pMCMC2</t>
+  </si>
+  <si>
+    <t>Proportion of the posterior sample of the reference slope that crosses zero</t>
+  </si>
+  <si>
+    <t>Proportion of the posterior sample of the SARS-like CoV slope that crosses zero</t>
   </si>
 </sst>
 </file>
@@ -323,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -350,6 +487,13 @@
     <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,14 +808,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -856,6 +1000,179 @@
       </c>
       <c r="B26" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2292,10 +2609,590 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>217.611366</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.1419</v>
+      </c>
+      <c r="F2" s="6">
+        <v>4.8515000000000001E-6</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10">
+        <v>9.4160999999999995E-4</v>
+      </c>
+      <c r="L2" s="22">
+        <v>1.0059999999999999E-3</v>
+      </c>
+      <c r="M2" s="10">
+        <v>6.6709999999999998E-3</v>
+      </c>
+      <c r="N2" s="16">
+        <v>2.2351999999999999E-5</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="26">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="T2" s="26"/>
+      <c r="U2" s="24">
+        <f>-2*D2</f>
+        <v>-435.22273200000001</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>212.79338100000001</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.16389999999999999</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2.8341999999999999E-6</v>
+      </c>
+      <c r="G3" s="14">
+        <f>-0.0281</f>
+        <v>-2.81E-2</v>
+      </c>
+      <c r="H3" s="14">
+        <v>7.6809000000000003E-4</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10">
+        <v>4.8265999999999999E-4</v>
+      </c>
+      <c r="L3" s="22">
+        <v>0.48880000000000001</v>
+      </c>
+      <c r="M3" s="10">
+        <v>6.0382999999999999E-3</v>
+      </c>
+      <c r="N3" s="16">
+        <v>1.6067E-5</v>
+      </c>
+      <c r="O3" s="10">
+        <v>5.7657999999999997E-3</v>
+      </c>
+      <c r="P3" s="10">
+        <v>7.3620000000000001E-4</v>
+      </c>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="26">
+        <v>0.42759999999999998</v>
+      </c>
+      <c r="T3" s="26">
+        <v>0.1489</v>
+      </c>
+      <c r="U3" s="24">
+        <f>-2*D3</f>
+        <v>-425.58676200000002</v>
+      </c>
+      <c r="V3" s="5">
+        <f>U3-U2</f>
+        <v>9.6359699999999862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>208.73187300000001</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.15179999999999999</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3.4498E-6</v>
+      </c>
+      <c r="G4" s="14">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="12">
+        <v>-1.61E-2</v>
+      </c>
+      <c r="J4" s="10">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="K4" s="10">
+        <v>3.6672000000000001E-4</v>
+      </c>
+      <c r="L4" s="22">
+        <v>0.6119</v>
+      </c>
+      <c r="M4" s="10">
+        <v>6.2001000000000001E-3</v>
+      </c>
+      <c r="N4" s="16">
+        <v>1.3987E-5</v>
+      </c>
+      <c r="O4" s="10">
+        <v>8.6084000000000004E-3</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10">
+        <v>5.9760000000000004E-3</v>
+      </c>
+      <c r="R4" s="10">
+        <v>6.9205000000000004E-4</v>
+      </c>
+      <c r="S4" s="26">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="T4" s="26">
+        <v>0.38640000000000002</v>
+      </c>
+      <c r="U4" s="24">
+        <f>-2*D4</f>
+        <v>-417.46374600000001</v>
+      </c>
+      <c r="V4" s="5">
+        <f>U4-U2</f>
+        <v>17.758985999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>225.53662299999999</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.15179999999999999</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3.4535000000000001E-6</v>
+      </c>
+      <c r="G5" s="14">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="12">
+        <v>-1.61E-2</v>
+      </c>
+      <c r="J5" s="10">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="K5" s="10">
+        <v>3.4593999999999998E-4</v>
+      </c>
+      <c r="L5" s="22">
+        <v>0.81679999999999997</v>
+      </c>
+      <c r="M5" s="10">
+        <v>5.8145999999999996E-3</v>
+      </c>
+      <c r="N5" s="16">
+        <v>1.3559E-5</v>
+      </c>
+      <c r="O5" s="10">
+        <v>5.2380999999999999E-3</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10">
+        <v>5.7397000000000004E-3</v>
+      </c>
+      <c r="R5" s="10">
+        <v>6.6073E-4</v>
+      </c>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="24">
+        <f>-2*D5</f>
+        <v>-451.07324599999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F8" s="4"/>
+      <c r="G8" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="12">
+        <v>4</v>
+      </c>
+      <c r="C2" s="23">
+        <v>0.22717139</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.13370000000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.1118</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="G2" s="19">
+        <v>5.6632000000000003E-5</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="12">
+        <v>4</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0.22686664000000001</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.1338</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.1089</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="G3" s="19">
+        <v>6.8769000000000005E-5</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="12">
+        <v>4</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.22714556999999999</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.1338</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.1089</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.15820000000000001</v>
+      </c>
+      <c r="G4" s="19">
+        <v>6.8282999999999997E-5</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0.22717925</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.1338</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.16689999999999999</v>
+      </c>
+      <c r="G5" s="19">
+        <v>7.7836999999999994E-5</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.19170455</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.1338</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.16689999999999999</v>
+      </c>
+      <c r="G6" s="19">
+        <v>7.7770999999999998E-5</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="12">
+        <v>4</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0.19159649000000001</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.1338</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.1004</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.1668</v>
+      </c>
+      <c r="G7" s="19">
+        <v>7.6548E-5</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="12">
+        <v>4</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.18548017</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.1338</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.1008</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G8" s="19">
+        <v>7.7663000000000005E-5</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2469,26 +3366,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2512,9 +3398,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/surya_punctuation_sars_like/surya_results_punctuation_sars_like.xlsx
+++ b/surya_punctuation_sars_like/surya_results_punctuation_sars_like.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s71z662\Documents\Emergency\IZANAMI2\2_macroevolution\surya_punctuation_sars_like\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_punctuation_sars_like\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257F124A-8EE5-4316-AE4E-7A1CC64328D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7725"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="prediction" sheetId="4" r:id="rId3"/>
     <sheet name="prediction_estimates" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -377,7 +378,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -807,19 +808,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="15.04296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -827,7 +828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -835,7 +836,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -843,7 +844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -851,7 +852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -859,12 +860,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -872,17 +873,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -890,7 +891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -898,7 +899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -906,7 +907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -914,7 +915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -922,7 +923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -930,7 +931,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -938,7 +939,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -946,7 +947,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -954,7 +955,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -962,7 +963,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -970,7 +971,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
@@ -978,7 +979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -986,7 +987,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -994,7 +995,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1002,12 +1003,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B27" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -1015,7 +1016,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1024,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A37" s="2" t="s">
         <v>49</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A38" s="2" t="s">
         <v>103</v>
       </c>
@@ -1095,7 +1096,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A39" s="2" t="s">
         <v>104</v>
       </c>
@@ -1103,12 +1104,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
       <c r="B40" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A41" s="2" t="s">
         <v>83</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A42" s="2" t="s">
         <v>89</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A43" s="2" t="s">
         <v>91</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A44" s="2" t="s">
         <v>93</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A45" s="2" t="s">
         <v>94</v>
       </c>
@@ -1149,7 +1150,7 @@
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A46" s="2" t="s">
         <v>95</v>
       </c>
@@ -1158,7 +1159,7 @@
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A47" s="2" t="s">
         <v>96</v>
       </c>
@@ -1167,7 +1168,7 @@
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -1182,37 +1183,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="14.31640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.76953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.76953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.76953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.76953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.76953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.2265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.2265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.76953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -1280,7 +1282,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -1326,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -1385,7 +1387,7 @@
         <v>5.3244034371628572</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -1445,7 +1447,7 @@
       </c>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
@@ -1510,7 +1512,7 @@
         <v>4.3145791557441839</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -1575,7 +1577,7 @@
         <v>4.3145791557441839</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
@@ -1640,7 +1642,7 @@
         <v>4.3145791557441839</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
@@ -1684,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -1741,7 +1743,7 @@
         <v>21.13190000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.6">
       <c r="A10" s="1" t="s">
         <v>59</v>
       </c>
@@ -1804,7 +1806,7 @@
         <v>24.227200000000039</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
@@ -1867,7 +1869,7 @@
         <v>24.227200000000039</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -1930,7 +1932,7 @@
         <v>24.227200000000039</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -1980,7 +1982,7 @@
       </c>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -2028,7 +2030,7 @@
       </c>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -2075,7 +2077,7 @@
         <v>-200.60069999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.6">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -2122,7 +2124,7 @@
         <v>-221.47479592465999</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -2181,7 +2183,7 @@
         <v>-228.25830940709287</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -2226,7 +2228,7 @@
       <c r="P18" s="10">
         <v>3.2696040000000003E-2</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="19">
         <v>3.7804829999999998E-3</v>
       </c>
       <c r="R18" s="10"/>
@@ -2238,7 +2240,7 @@
         <v>-182.46019999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
@@ -2295,7 +2297,7 @@
         <v>-182.4598</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,7 +2354,7 @@
         <v>-219.941256068608</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -2413,7 +2415,7 @@
         <v>-228.77874568851144</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
@@ -2472,7 +2474,7 @@
         <v>-175.07769999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -2531,7 +2533,7 @@
         <v>-175.07749999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -2590,17 +2592,17 @@
         <v>-175.07746731099701</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.6">
       <c r="H25" s="20"/>
       <c r="I25" s="15"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.6">
       <c r="G27" s="6"/>
       <c r="H27" s="21"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.6">
       <c r="I28" s="21"/>
     </row>
   </sheetData>
@@ -2610,35 +2612,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="29.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.76953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.2265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.40625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.76953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="4.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -2706,7 +2710,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
@@ -2757,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
@@ -2820,7 +2824,7 @@
         <v>9.6359699999999862</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -2886,7 +2890,7 @@
         <v>17.758985999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>75</v>
       </c>
@@ -2944,7 +2948,7 @@
         <v>-451.07324599999998</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.6">
       <c r="F8" s="4"/>
       <c r="G8" s="6"/>
     </row>
@@ -2955,24 +2959,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="25.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.04296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.2265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -2998,7 +3003,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
@@ -3024,7 +3029,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -3050,7 +3055,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -3076,7 +3081,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
@@ -3102,7 +3107,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
@@ -3128,7 +3133,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
@@ -3154,7 +3159,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -3187,15 +3192,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E46722399A7B5D4590DBCFF250182F33" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05807d8e6f97dd573643f350d0638d6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="677f5592-671a-486f-9aac-5097e59069f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fa3647ed1dc35413e65d5d4278d9638" ns3:_="">
     <xsd:import namespace="677f5592-671a-486f-9aac-5097e59069f9"/>
@@ -3365,6 +3361,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3372,14 +3377,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3393,6 +3390,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
